--- a/caps_area_score.xlsx
+++ b/caps_area_score.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rylii-lillith\Documents\NSS\python\projects\caps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECA73F8-0458-4C01-93C2-D4AC90F2B026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3B6A4B-55A1-4D2F-AF26-AF1A0FCC2ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37680" windowHeight="16440" xr2:uid="{E417841F-C721-421B-90DE-1E6DB40F1830}"/>
+    <workbookView xWindow="7020" yWindow="1545" windowWidth="11220" windowHeight="13770" xr2:uid="{E417841F-C721-421B-90DE-1E6DB40F1830}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,6 +508,12 @@
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4" s="1">
+        <v>37072</v>
+      </c>
+      <c r="J4">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -528,6 +534,12 @@
       <c r="G5">
         <v>4</v>
       </c>
+      <c r="I5" s="1">
+        <v>37076</v>
+      </c>
+      <c r="J5">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -551,6 +563,12 @@
       <c r="G6">
         <v>3</v>
       </c>
+      <c r="I6" s="1">
+        <v>37115</v>
+      </c>
+      <c r="J6">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -568,11 +586,23 @@
       <c r="G7">
         <v>2</v>
       </c>
+      <c r="I7" s="1">
+        <v>37138</v>
+      </c>
+      <c r="J7">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>37189</v>
       </c>
+      <c r="I8" s="1">
+        <v>37189</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -581,6 +611,12 @@
       <c r="G9">
         <v>6</v>
       </c>
+      <c r="I9" s="1">
+        <v>37201</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -601,6 +637,12 @@
       <c r="G10">
         <v>12</v>
       </c>
+      <c r="I10" s="1">
+        <v>37203</v>
+      </c>
+      <c r="J10">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -612,6 +654,12 @@
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11" s="1">
+        <v>37204</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -620,6 +668,12 @@
       <c r="B12">
         <v>2</v>
       </c>
+      <c r="I12" s="1">
+        <v>37205</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -637,6 +691,12 @@
       <c r="G13">
         <v>8</v>
       </c>
+      <c r="I13" s="1">
+        <v>37206</v>
+      </c>
+      <c r="J13">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -654,6 +714,12 @@
       <c r="G14">
         <v>5</v>
       </c>
+      <c r="I14" s="1">
+        <v>37207</v>
+      </c>
+      <c r="J14">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -677,6 +743,12 @@
       <c r="G15">
         <v>13</v>
       </c>
+      <c r="I15">
+        <v>37208</v>
+      </c>
+      <c r="J15">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -700,8 +772,14 @@
       <c r="H16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="1">
+        <v>37209</v>
+      </c>
+      <c r="J16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>37210</v>
       </c>
@@ -720,8 +798,14 @@
       <c r="H17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I17" s="1">
+        <v>37210</v>
+      </c>
+      <c r="J17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>37211</v>
       </c>
@@ -743,8 +827,14 @@
       <c r="H18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="2">
+        <v>37211</v>
+      </c>
+      <c r="J18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>37212</v>
       </c>
@@ -754,8 +844,14 @@
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="1">
+        <v>37212</v>
+      </c>
+      <c r="J19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>37213</v>
       </c>
@@ -765,8 +861,14 @@
       <c r="G20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="1">
+        <v>37213</v>
+      </c>
+      <c r="J20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>37214</v>
       </c>
@@ -779,8 +881,14 @@
       <c r="G21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="1">
+        <v>37214</v>
+      </c>
+      <c r="J21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>37215</v>
       </c>
@@ -793,8 +901,14 @@
       <c r="G22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="1">
+        <v>37215</v>
+      </c>
+      <c r="J22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>37216</v>
       </c>
@@ -810,8 +924,14 @@
       <c r="H23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="1">
+        <v>37216</v>
+      </c>
+      <c r="J23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>37217</v>
       </c>
@@ -821,8 +941,14 @@
       <c r="G24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="1">
+        <v>37217</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>37218</v>
       </c>
@@ -838,8 +964,14 @@
       <c r="G25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="1">
+        <v>37218</v>
+      </c>
+      <c r="J25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>37219</v>
       </c>
@@ -849,13 +981,25 @@
       <c r="G26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I26" s="1">
+        <v>37219</v>
+      </c>
+      <c r="J26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>37220</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="2">
+        <v>37220</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>37221</v>
       </c>
@@ -868,8 +1012,14 @@
       <c r="G28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="1">
+        <v>37221</v>
+      </c>
+      <c r="J28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>37228</v>
       </c>
@@ -878,6 +1028,12 @@
       </c>
       <c r="G29">
         <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>37228</v>
+      </c>
+      <c r="J29">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
